--- a/tests/integration_tests/baseline_results/Baseline_test_scenario_3.xlsx
+++ b/tests/integration_tests/baseline_results/Baseline_test_scenario_3.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10575" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10576" uniqueCount="1309">
   <si>
     <t>value</t>
   </si>
@@ -3922,9 +3922,6 @@
     <t>solver_name</t>
   </si>
   <si>
-    <t>gurobi</t>
-  </si>
-  <si>
     <t>redispatch_quantity</t>
   </si>
   <si>
@@ -3959,6 +3956,12 @@
   </si>
   <si>
     <t>total_qty_cleared [%]</t>
+  </si>
+  <si>
+    <t>glpk</t>
+  </si>
+  <si>
+    <t>design_variable</t>
   </si>
 </sst>
 </file>
@@ -4017,9 +4020,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4329,7 +4335,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4467,7 +4473,7 @@
         <v>1294</v>
       </c>
       <c r="B17" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -4495,6 +4501,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>1308</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4717,7 +4726,7 @@
         <v>77</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>78</v>
@@ -4809,7 +4818,7 @@
         <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -19884,7 +19893,7 @@
         <v>684</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -19929,7 +19938,7 @@
         <v>686</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -20460,7 +20469,7 @@
         <v>684</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -20505,7 +20514,7 @@
         <v>686</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -21042,7 +21051,7 @@
         <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>137</v>
@@ -21465,7 +21474,7 @@
         <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>137</v>
@@ -22251,7 +22260,7 @@
         <v>684</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -22293,7 +22302,7 @@
         <v>686</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -29692,7 +29701,7 @@
         <v>684</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -29734,7 +29743,7 @@
         <v>686</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -33183,7 +33192,7 @@
         <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -33413,7 +33422,7 @@
         <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -33570,7 +33579,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -33590,7 +33599,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -33599,7 +33608,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -33608,7 +33617,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -33617,7 +33626,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -33626,7 +33635,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -33635,7 +33644,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -33644,7 +33653,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -33653,7 +33662,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -33665,7 +33674,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -33683,7 +33692,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -33701,7 +33710,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -33719,7 +33728,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -33737,7 +33746,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -33755,7 +33764,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -33773,7 +33782,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -33791,7 +33800,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -33809,7 +33818,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -33827,7 +33836,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -33839,7 +33848,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -33848,7 +33857,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -33857,7 +33866,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -33866,7 +33875,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -33875,7 +33884,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -33884,7 +33893,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -33893,7 +33902,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -33902,7 +33911,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -33911,7 +33920,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -33920,7 +33929,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -33929,7 +33938,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -33938,7 +33947,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -33947,7 +33956,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -33956,7 +33965,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -33965,7 +33974,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -33974,7 +33983,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -33983,7 +33992,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -33992,7 +34001,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -34001,7 +34010,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -34010,7 +34019,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -34019,7 +34028,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -34028,7 +34037,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -34037,7 +34046,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -34046,7 +34055,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -34055,7 +34064,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -34064,7 +34073,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -34073,7 +34082,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -34082,7 +34091,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -34091,7 +34100,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -34100,7 +34109,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -34109,7 +34118,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -34118,7 +34127,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -34127,7 +34136,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -34136,7 +34145,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -34145,7 +34154,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -34154,7 +34163,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -34163,7 +34172,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -34172,7 +34181,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -34181,7 +34190,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -34190,7 +34199,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -34199,7 +34208,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -34208,7 +34217,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -34217,7 +34226,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -34226,7 +34235,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -34235,7 +34244,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -34244,7 +34253,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -34253,7 +34262,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -34262,7 +34271,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -34271,7 +34280,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -34280,7 +34289,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -34289,7 +34298,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -34298,7 +34307,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -34307,7 +34316,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -34316,7 +34325,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -34325,7 +34334,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -34334,7 +34343,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -34343,7 +34352,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -34352,7 +34361,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -34361,7 +34370,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -34370,7 +34379,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -34379,7 +34388,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -34388,7 +34397,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -34397,7 +34406,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -34406,7 +34415,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -34415,7 +34424,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -34424,7 +34433,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -34433,7 +34442,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -34442,7 +34451,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -34451,7 +34460,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -34460,7 +34469,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -34469,7 +34478,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -34478,7 +34487,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -34487,7 +34496,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -34496,7 +34505,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -34505,7 +34514,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -34514,7 +34523,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -34523,7 +34532,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -34544,23 +34553,23 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1302</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>80</v>
@@ -34581,204 +34590,207 @@
         <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1305</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1306</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>18.096774193548391</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>15.97894736842105</v>
-      </c>
-      <c r="D2">
-        <v>12.5</v>
-      </c>
-      <c r="E2">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>66.857142857142861</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>34</v>
-      </c>
-      <c r="I2">
-        <v>34</v>
-      </c>
-      <c r="J2">
-        <v>212.5</v>
-      </c>
-      <c r="K2">
-        <v>9.6561282333829393E-2</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>726.5</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>784</v>
-      </c>
-      <c r="N2">
-        <v>6.25</v>
-      </c>
-      <c r="O2">
-        <v>6.25</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.1736111111111111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>54.395604395604387</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>80.645161290322577</v>
+        <v>144.94845360824741</v>
       </c>
       <c r="D3">
+        <v>144.94845360824741</v>
+      </c>
+      <c r="E3">
+        <v>144.94845360824741</v>
+      </c>
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>60.5</v>
-      </c>
-      <c r="G3">
-        <v>10.666666666666661</v>
-      </c>
       <c r="H3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>8955</v>
+        <v>210900</v>
       </c>
       <c r="K3">
-        <v>4.0692060390561986</v>
+        <v>95.834232678609979</v>
       </c>
       <c r="L3">
-        <v>3575</v>
+        <v>3515</v>
       </c>
       <c r="M3">
-        <v>2275</v>
+        <v>4850</v>
       </c>
       <c r="N3">
-        <v>45</v>
+        <v>3515</v>
       </c>
       <c r="O3">
-        <v>112.5</v>
+        <v>3515</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.1875</v>
+        <v>97.638888888888886</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>18.096774193548391</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>15.97894736842105</v>
+      </c>
+      <c r="D4">
+        <v>12.5</v>
+      </c>
+      <c r="E4">
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>66.857142857142861</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>212.5</v>
+      </c>
+      <c r="K4">
+        <v>9.6561282333829393E-2</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>726.5</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>784</v>
+      </c>
+      <c r="N4">
+        <v>6.25</v>
+      </c>
+      <c r="O4">
+        <v>6.25</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>54.395604395604387</v>
       </c>
       <c r="C5">
-        <v>144.94845360824741</v>
+        <v>80.645161290322577</v>
       </c>
       <c r="D5">
-        <v>144.94845360824741</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>144.94845360824741</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>60.5</v>
+      </c>
+      <c r="G5">
+        <v>10.666666666666661</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J5">
-        <v>210900</v>
+        <v>8955</v>
       </c>
       <c r="K5">
-        <v>95.834232678609979</v>
+        <v>4.0692060390561986</v>
       </c>
       <c r="L5">
-        <v>3515</v>
+        <v>3575</v>
       </c>
       <c r="M5">
-        <v>4850</v>
+        <v>2275</v>
       </c>
       <c r="N5">
-        <v>3515</v>
+        <v>45</v>
       </c>
       <c r="O5">
-        <v>3515</v>
+        <v>112.5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q5">
-        <v>97.638888888888886</v>
+        <v>2.1875</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Q5">
+    <sortCondition ref="A2:A5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34826,7 +34838,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -34843,7 +34855,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -34858,7 +34870,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -34873,7 +34885,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -34888,7 +34900,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -34903,7 +34915,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -34918,7 +34930,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -34933,7 +34945,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -34948,7 +34960,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -34963,7 +34975,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -34978,7 +34990,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -34993,7 +35005,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -35008,7 +35020,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -35023,7 +35035,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -35038,7 +35050,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -35053,7 +35065,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -35068,7 +35080,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -35083,7 +35095,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -35098,7 +35110,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -35113,7 +35125,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -35128,7 +35140,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -35143,7 +35155,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -35158,7 +35170,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -35173,7 +35185,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -35188,7 +35200,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -35203,7 +35215,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -35218,7 +35230,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -35233,7 +35245,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -35248,7 +35260,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -35263,7 +35275,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -35278,7 +35290,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -35293,7 +35305,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -35308,7 +35320,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -35323,7 +35335,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -35338,7 +35350,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -35353,7 +35365,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -35368,7 +35380,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -35383,7 +35395,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -35398,7 +35410,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -35413,7 +35425,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -35428,7 +35440,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -35443,7 +35455,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -35458,7 +35470,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -35473,7 +35485,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -35488,7 +35500,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -35503,7 +35515,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -35518,7 +35530,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -35533,7 +35545,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -35548,7 +35560,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -35563,7 +35575,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -35578,7 +35590,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -35593,7 +35605,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -35608,7 +35620,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -35623,7 +35635,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -35638,7 +35650,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -35653,7 +35665,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -35668,7 +35680,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -35683,7 +35695,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -35698,7 +35710,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -35713,7 +35725,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -35728,7 +35740,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -35743,7 +35755,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -35758,7 +35770,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -35773,7 +35785,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -35788,7 +35800,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -35803,7 +35815,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -35818,7 +35830,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -35833,7 +35845,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -35848,7 +35860,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -35863,7 +35875,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -35878,7 +35890,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -35893,7 +35905,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -35908,7 +35920,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -35923,7 +35935,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -35938,7 +35950,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -35953,7 +35965,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -35968,7 +35980,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -35983,7 +35995,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -35998,7 +36010,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -36013,7 +36025,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -36028,7 +36040,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -36043,7 +36055,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -36058,7 +36070,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -36073,7 +36085,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -36088,7 +36100,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -36103,7 +36115,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -36118,7 +36130,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -36133,7 +36145,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -36148,7 +36160,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -36163,7 +36175,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -36178,7 +36190,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -36193,7 +36205,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -36208,7 +36220,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -36223,7 +36235,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -36238,7 +36250,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -36253,7 +36265,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -36285,24 +36297,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
@@ -36408,7 +36420,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -36458,7 +36470,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -36506,7 +36518,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -36554,7 +36566,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -36602,7 +36614,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -36650,7 +36662,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -36698,7 +36710,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -36746,7 +36758,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -36794,7 +36806,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -36842,7 +36854,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -36890,7 +36902,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -36938,7 +36950,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -36986,7 +36998,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -37034,7 +37046,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -37082,7 +37094,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -37130,7 +37142,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -37178,7 +37190,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -37226,7 +37238,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -37274,7 +37286,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -37322,7 +37334,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -37370,7 +37382,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -37418,7 +37430,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -37466,7 +37478,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -37514,7 +37526,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -37562,7 +37574,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -37610,7 +37622,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -37658,7 +37670,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -37706,7 +37718,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -37754,7 +37766,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -37802,7 +37814,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -37850,7 +37862,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -37898,7 +37910,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -37946,7 +37958,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -37994,7 +38006,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -38042,7 +38054,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -38090,7 +38102,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -38138,7 +38150,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -38186,7 +38198,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -38234,7 +38246,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -38282,7 +38294,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -38330,7 +38342,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -38378,7 +38390,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -38426,7 +38438,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -38474,7 +38486,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -38522,7 +38534,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -38570,7 +38582,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -38618,7 +38630,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -38666,7 +38678,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -38714,7 +38726,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -38762,7 +38774,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -38810,7 +38822,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -38858,7 +38870,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>52</v>
       </c>
@@ -38906,7 +38918,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -38954,7 +38966,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -39002,7 +39014,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -39050,7 +39062,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -39098,7 +39110,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -39146,7 +39158,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -39194,7 +39206,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -39242,7 +39254,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -39290,7 +39302,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>61</v>
       </c>
@@ -39338,7 +39350,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>62</v>
       </c>
@@ -39386,7 +39398,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>63</v>
       </c>
@@ -39434,7 +39446,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>64</v>
       </c>
@@ -39482,7 +39494,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>65</v>
       </c>
@@ -39530,7 +39542,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>66</v>
       </c>
@@ -39578,7 +39590,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>67</v>
       </c>
@@ -39626,7 +39638,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>68</v>
       </c>
@@ -39674,7 +39686,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>69</v>
       </c>
@@ -39722,7 +39734,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>70</v>
       </c>
@@ -39770,7 +39782,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>71</v>
       </c>
@@ -39818,7 +39830,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>72</v>
       </c>
@@ -39866,7 +39878,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>73</v>
       </c>
@@ -39914,7 +39926,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>74</v>
       </c>
@@ -39962,7 +39974,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>75</v>
       </c>
@@ -40010,7 +40022,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>76</v>
       </c>
@@ -40058,7 +40070,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>77</v>
       </c>
@@ -40106,7 +40118,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>78</v>
       </c>
@@ -40154,7 +40166,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>79</v>
       </c>
@@ -40202,7 +40214,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>80</v>
       </c>
@@ -40250,7 +40262,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>81</v>
       </c>
@@ -40298,7 +40310,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>82</v>
       </c>
@@ -40346,7 +40358,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>83</v>
       </c>
@@ -40394,7 +40406,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>84</v>
       </c>
@@ -40442,7 +40454,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>85</v>
       </c>
@@ -40490,7 +40502,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>86</v>
       </c>
@@ -40538,7 +40550,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>87</v>
       </c>
@@ -40586,7 +40598,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>88</v>
       </c>
@@ -40634,7 +40646,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>89</v>
       </c>
@@ -40682,7 +40694,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>90</v>
       </c>
@@ -40730,7 +40742,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>91</v>
       </c>
@@ -40778,7 +40790,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>92</v>
       </c>
@@ -40826,7 +40838,7 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>93</v>
       </c>
@@ -40874,7 +40886,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>94</v>
       </c>
@@ -40922,7 +40934,7 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>95</v>
       </c>
@@ -40970,7 +40982,7 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1">
         <v>96</v>
       </c>
@@ -41037,26 +41049,26 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
@@ -41156,7 +41168,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -41194,7 +41206,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -41224,7 +41236,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -41254,7 +41266,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -41284,7 +41296,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -41314,7 +41326,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -41344,7 +41356,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -41374,7 +41386,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -41404,7 +41416,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -41440,7 +41452,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -41476,7 +41488,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -41512,7 +41524,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -41548,7 +41560,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -41584,7 +41596,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -41620,7 +41632,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -41656,7 +41668,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -41692,7 +41704,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -41728,7 +41740,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -41764,7 +41776,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -41800,7 +41812,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -41830,7 +41842,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -41860,7 +41872,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -41890,7 +41902,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -41920,7 +41932,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -41950,7 +41962,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -41980,7 +41992,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -42010,7 +42022,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -42040,7 +42052,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -42070,7 +42082,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -42100,7 +42112,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -42130,7 +42142,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -42160,7 +42172,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -42190,7 +42202,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -42220,7 +42232,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -42250,7 +42262,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -42280,7 +42292,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -42310,7 +42322,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -42340,7 +42352,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -42370,7 +42382,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -42400,7 +42412,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -42430,7 +42442,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -42460,7 +42472,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -42490,7 +42502,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -42520,7 +42532,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -42550,7 +42562,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -42580,7 +42592,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -42610,7 +42622,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -42640,7 +42652,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -42670,7 +42682,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -42700,7 +42712,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -42730,7 +42742,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -42760,7 +42772,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>52</v>
       </c>
@@ -42790,7 +42802,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -42820,7 +42832,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -42850,7 +42862,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -42880,7 +42892,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -42910,7 +42922,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -42940,7 +42952,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -42970,7 +42982,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -43000,7 +43012,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -43030,7 +43042,7 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>61</v>
       </c>
@@ -43060,7 +43072,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>62</v>
       </c>
@@ -43090,7 +43102,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>63</v>
       </c>
@@ -43120,7 +43132,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>64</v>
       </c>
@@ -43150,7 +43162,7 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>65</v>
       </c>
@@ -43180,7 +43192,7 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>66</v>
       </c>
@@ -43210,7 +43222,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>67</v>
       </c>
@@ -43240,7 +43252,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>68</v>
       </c>
@@ -43270,7 +43282,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>69</v>
       </c>
@@ -43300,7 +43312,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>70</v>
       </c>
@@ -43330,7 +43342,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>71</v>
       </c>
@@ -43360,7 +43372,7 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>72</v>
       </c>
@@ -43390,7 +43402,7 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>73</v>
       </c>
@@ -43420,7 +43432,7 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>74</v>
       </c>
@@ -43450,7 +43462,7 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>75</v>
       </c>
@@ -43480,7 +43492,7 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>76</v>
       </c>
@@ -43510,7 +43522,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>77</v>
       </c>
@@ -43540,7 +43552,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>78</v>
       </c>
@@ -43570,7 +43582,7 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>79</v>
       </c>
@@ -43600,7 +43612,7 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>80</v>
       </c>
@@ -43630,7 +43642,7 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>81</v>
       </c>
@@ -43660,7 +43672,7 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>82</v>
       </c>
@@ -43690,7 +43702,7 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>83</v>
       </c>
@@ -43720,7 +43732,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>84</v>
       </c>
@@ -43750,7 +43762,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>85</v>
       </c>
@@ -43780,7 +43792,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>86</v>
       </c>
@@ -43810,7 +43822,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>87</v>
       </c>
@@ -43840,7 +43852,7 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>88</v>
       </c>
@@ -43870,7 +43882,7 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>89</v>
       </c>
@@ -43900,7 +43912,7 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>90</v>
       </c>
@@ -43930,7 +43942,7 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>91</v>
       </c>
@@ -43960,7 +43972,7 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>92</v>
       </c>
@@ -43990,7 +44002,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>93</v>
       </c>
@@ -44020,7 +44032,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>94</v>
       </c>
@@ -44050,7 +44062,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>95</v>
       </c>
@@ -44080,7 +44092,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1">
         <v>96</v>
       </c>
@@ -44551,7 +44563,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -44559,55 +44571,55 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -44640,7 +44652,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -44673,7 +44685,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -44706,7 +44718,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -44739,7 +44751,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -44772,7 +44784,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -44805,7 +44817,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -44838,7 +44850,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -44871,7 +44883,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -44904,469 +44916,469 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -45427,7 +45439,7 @@
         <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -59115,7 +59127,7 @@
         <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -69174,7 +69186,7 @@
         <v>684</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -69213,7 +69225,7 @@
         <v>686</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -69352,7 +69364,7 @@
         <v>684</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -69391,7 +69403,7 @@
         <v>686</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -69557,7 +69569,7 @@
         <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
